--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Ccr5.xlsx
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H2">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N2">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O2">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P2">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q2">
-        <v>6.870116558026</v>
+        <v>0.007538328151666666</v>
       </c>
       <c r="R2">
-        <v>61.831049022234</v>
+        <v>0.06784495336499999</v>
       </c>
       <c r="S2">
-        <v>0.005873396991470123</v>
+        <v>1.398332926601669E-05</v>
       </c>
       <c r="T2">
-        <v>0.005873396991470123</v>
+        <v>1.398332926601669E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H3">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I3">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J3">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.203152</v>
       </c>
       <c r="O3">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P3">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q3">
-        <v>0.685149344224</v>
+        <v>0.1367677688657778</v>
       </c>
       <c r="R3">
-        <v>6.166344098016</v>
+        <v>1.230909919792</v>
       </c>
       <c r="S3">
-        <v>0.0005857475725607246</v>
+        <v>0.0002536993225223028</v>
       </c>
       <c r="T3">
-        <v>0.0005857475725607246</v>
+        <v>0.0002536993225223028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H4">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I4">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J4">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N4">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O4">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P4">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q4">
-        <v>102.018028488656</v>
+        <v>9.830686624485221</v>
       </c>
       <c r="R4">
-        <v>918.162256397904</v>
+        <v>88.47617962036698</v>
       </c>
       <c r="S4">
-        <v>0.0872172075306321</v>
+        <v>0.01823557229341501</v>
       </c>
       <c r="T4">
-        <v>0.0872172075306321</v>
+        <v>0.01823557229341501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>11.528539</v>
       </c>
       <c r="I5">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J5">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N5">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O5">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P5">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q5">
-        <v>15.45365170668856</v>
+        <v>0.08494611819833334</v>
       </c>
       <c r="R5">
-        <v>139.082865360197</v>
+        <v>0.764515063785</v>
       </c>
       <c r="S5">
-        <v>0.01321162904219655</v>
+        <v>0.000157572012883871</v>
       </c>
       <c r="T5">
-        <v>0.01321162904219655</v>
+        <v>0.000157572012883871</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.528539</v>
       </c>
       <c r="I6">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J6">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>1.203152</v>
       </c>
       <c r="O6">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P6">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q6">
         <v>1.541176083880889</v>
@@ -821,10 +821,10 @@
         <v>13.870584754928</v>
       </c>
       <c r="S6">
-        <v>0.001317581572006491</v>
+        <v>0.002858826546712737</v>
       </c>
       <c r="T6">
-        <v>0.001317581572006491</v>
+        <v>0.002858826546712737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.528539</v>
       </c>
       <c r="I7">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J7">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N7">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O7">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P7">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q7">
-        <v>229.4795243648258</v>
+        <v>110.7777017891781</v>
       </c>
       <c r="R7">
-        <v>2065.315719283432</v>
+        <v>996.999316102603</v>
       </c>
       <c r="S7">
-        <v>0.1961865328811299</v>
+        <v>0.2054886771025221</v>
       </c>
       <c r="T7">
-        <v>0.1961865328811299</v>
+        <v>0.2054886771025221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H8">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I8">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J8">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N8">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O8">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P8">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q8">
-        <v>1.838596968484555</v>
+        <v>0.004625301778333334</v>
       </c>
       <c r="R8">
-        <v>16.547372716361</v>
+        <v>0.041627716005</v>
       </c>
       <c r="S8">
-        <v>0.001571852502357851</v>
+        <v>8.579769468755208E-06</v>
       </c>
       <c r="T8">
-        <v>0.001571852502357851</v>
+        <v>8.579769468755206E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H9">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I9">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J9">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>1.203152</v>
       </c>
       <c r="O9">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P9">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q9">
-        <v>0.1833613005848889</v>
+        <v>0.08391677727822222</v>
       </c>
       <c r="R9">
-        <v>1.650251705264</v>
+        <v>0.755250995504</v>
       </c>
       <c r="S9">
-        <v>0.0001567591615238589</v>
+        <v>0.0001556626222705536</v>
       </c>
       <c r="T9">
-        <v>0.0001567591615238589</v>
+        <v>0.0001556626222705536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H10">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I10">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J10">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N10">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O10">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P10">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q10">
-        <v>27.30230794860177</v>
+        <v>6.031827138808778</v>
       </c>
       <c r="R10">
-        <v>245.720771537416</v>
+        <v>54.286444249279</v>
       </c>
       <c r="S10">
-        <v>0.02334127696540628</v>
+        <v>0.01118882373660139</v>
       </c>
       <c r="T10">
-        <v>0.02334127696540628</v>
+        <v>0.01118882373660139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H11">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I11">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J11">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>4.021407666666667</v>
+        <v>0.022105</v>
       </c>
       <c r="N11">
-        <v>12.064223</v>
+        <v>0.066315</v>
       </c>
       <c r="O11">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989593</v>
       </c>
       <c r="P11">
-        <v>0.06269882270324605</v>
+        <v>0.0007557226718989592</v>
       </c>
       <c r="Q11">
-        <v>49.17649141958266</v>
+        <v>0.3102957691166667</v>
       </c>
       <c r="R11">
-        <v>442.5884227762439</v>
+        <v>2.79266192205</v>
       </c>
       <c r="S11">
-        <v>0.04204194416722151</v>
+        <v>0.0005755875602803163</v>
       </c>
       <c r="T11">
-        <v>0.04204194416722151</v>
+        <v>0.0005755875602803163</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H12">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I12">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J12">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>1.203152</v>
       </c>
       <c r="O12">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="P12">
-        <v>0.006252886235031953</v>
+        <v>0.01371106452749117</v>
       </c>
       <c r="Q12">
-        <v>4.904318662250666</v>
+        <v>5.629691249404445</v>
       </c>
       <c r="R12">
-        <v>44.13886796025599</v>
+        <v>50.66722124464</v>
       </c>
       <c r="S12">
-        <v>0.004192797928940878</v>
+        <v>0.01044287603598557</v>
       </c>
       <c r="T12">
-        <v>0.004192797928940878</v>
+        <v>0.01044287603598557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H13">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I13">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J13">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.71602933333333</v>
+        <v>28.82699233333333</v>
       </c>
       <c r="N13">
-        <v>179.148088</v>
+        <v>86.480977</v>
       </c>
       <c r="O13">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006099</v>
       </c>
       <c r="P13">
-        <v>0.931048291061722</v>
+        <v>0.9855332128006098</v>
       </c>
       <c r="Q13">
-        <v>730.2479747238292</v>
+        <v>404.6547730102656</v>
       </c>
       <c r="R13">
-        <v>6572.231772514463</v>
+        <v>3641.89295709239</v>
       </c>
       <c r="S13">
-        <v>0.6243032736845536</v>
+        <v>0.7506201396680713</v>
       </c>
       <c r="T13">
-        <v>0.6243032736845536</v>
+        <v>0.7506201396680713</v>
       </c>
     </row>
   </sheetData>
